--- a/ModelAutoBuild/ModelAutoBuild.xlsx
+++ b/ModelAutoBuild/ModelAutoBuild.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/mikova_microsoft_com/Documents/Power BI CAT/ModelAutoBuild/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/mikova_microsoft_com/Documents/Power BI CAT/ModelAutoBuild/GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="418" documentId="8_{CFACD04C-7A0A-42D0-93DE-D5298EAD720C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{584E7FFF-0484-4E5A-8337-64D0F72FEBB0}"/>
+  <xr:revisionPtr revIDLastSave="455" documentId="8_{CFACD04C-7A0A-42D0-93DE-D5298EAD720C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{18B1B2D4-C1A0-46F8-B751-54EE1CD35AF2}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{BEC676D7-2196-4582-B754-27C40BA62468}"/>
   </bookViews>
@@ -18,13 +18,16 @@
     <sheet name="Relationships" sheetId="2" r:id="rId3"/>
     <sheet name="MeasuresColumns" sheetId="1" r:id="rId4"/>
     <sheet name="Model" sheetId="5" r:id="rId5"/>
-    <sheet name="Lists" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="Roles" sheetId="8" r:id="rId6"/>
+    <sheet name="RLS" sheetId="7" r:id="rId7"/>
+    <sheet name="Lists" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="CFB">Lists!$A$2:$A$3</definedName>
     <definedName name="DS">Lists!$C$2</definedName>
     <definedName name="DT">Lists!$F$3:$F$7</definedName>
     <definedName name="FS">Lists!$B$2:$B$5</definedName>
+    <definedName name="MP">Lists!$H$2:$H$3</definedName>
     <definedName name="OT">Lists!$G$2:$G$3</definedName>
     <definedName name="Prov">Lists!$E$2:$E$6</definedName>
     <definedName name="TT">Lists!$D$2:$D$6</definedName>
@@ -428,8 +431,112 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Michael Kovalsky</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{58ABE201-0125-422E-92B5-A77D259ABFE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>List all the roles within the model.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{333D43E4-7306-410F-BE53-D4A6A0360EED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>List the members of each role. Typically in DOMAIN\alias format.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{21D529A2-3B2A-44C7-AAC8-9F8439427D07}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Indicates what type of access the role will have: Admin or Read.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Michael Kovalsky</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DB011AEF-1F60-48FF-9D6A-C7E46DFCA8E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter the role name as done in the Roles tab.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{6561B1E1-43CD-45B1-8568-EE1548273146}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter the table where the Row Level Security applies.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2D852A7E-78E4-4110-9739-34A326D5FB05}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter the DAX filter expression that will be used for Row Level Security.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>ObjectType</t>
   </si>
@@ -591,6 +698,24 @@
   </si>
   <si>
     <t>Power BI Premium</t>
+  </si>
+  <si>
+    <t>RoleName</t>
+  </si>
+  <si>
+    <t>RoleMember</t>
+  </si>
+  <si>
+    <t>ModelPermission</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>FilterExpression</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1177,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1325,11 +1450,75 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BE63A7-A7D5-49AC-9895-8F1C3551ADEE}">
-  <dimension ref="A1:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A485E0-7C96-40E6-AAA8-F61E5C3555DB}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C56B1DE-B600-4742-A631-9DF853A5FAAE}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BE63A7-A7D5-49AC-9895-8F1C3551ADEE}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1339,7 +1528,7 @@
     <col min="3" max="3" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1361,8 +1550,11 @@
       <c r="G1" t="s">
         <v>0</v>
       </c>
+      <c r="H1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -1385,8 +1577,11 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
+      <c r="H2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -1409,8 +1604,11 @@
       <c r="G3" t="s">
         <v>12</v>
       </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -1425,7 +1623,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>29</v>
       </c>
@@ -1440,7 +1638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>28</v>
       </c>
@@ -1455,7 +1653,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C7" t="str">
         <f>_xlfn.CONCAT(DataSources!$A7," ", DataSources!$B7)</f>
         <v xml:space="preserve"> </v>
@@ -1464,13 +1662,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C9" t="str">
         <f>_xlfn.CONCAT(DataSources!$A3," ", DataSources!$B3)</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C10" t="str">
         <f>_xlfn.CONCAT(DataSources!$A4," ", DataSources!$B4)</f>
         <v xml:space="preserve"> </v>
@@ -1482,6 +1680,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="beaba498-6342-4421-a18c-7bfd16d38d53" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BCC0D0C0DFF8C6449DE7873A14FBCB83" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa404479abba3feb074acc2e806565cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9e548fd3-f7b4-490c-9d07-36be117e6ce5" xmlns:ns4="beaba498-6342-4421-a18c-7bfd16d38d53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25dd324ff6cedc5a2df3109d58df23e8" ns3:_="" ns4:_="">
     <xsd:import namespace="9e548fd3-f7b4-490c-9d07-36be117e6ce5"/>
@@ -1716,24 +1931,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="beaba498-6342-4421-a18c-7bfd16d38d53" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2275932-CD7C-4B19-A948-199D3E0E5FFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9805D712-353E-429A-8628-FA34CABB75D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="beaba498-6342-4421-a18c-7bfd16d38d53"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F812E1F2-546D-4113-A992-5C4A89A4B9AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1750,22 +1966,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9805D712-353E-429A-8628-FA34CABB75D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="beaba498-6342-4421-a18c-7bfd16d38d53"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2275932-CD7C-4B19-A948-199D3E0E5FFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/ModelAutoBuild/ModelAutoBuild.xlsx
+++ b/ModelAutoBuild/ModelAutoBuild.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/mikova_microsoft_com/Documents/Power BI CAT/ModelAutoBuild/GitHub/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/mikova_microsoft_com/Documents/Power BI CAT/ModelAutoBuild/GitHub/v1.1.1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="455" documentId="8_{CFACD04C-7A0A-42D0-93DE-D5298EAD720C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{18B1B2D4-C1A0-46F8-B751-54EE1CD35AF2}"/>
+  <xr:revisionPtr revIDLastSave="477" documentId="8_{CFACD04C-7A0A-42D0-93DE-D5298EAD720C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{850CA345-F752-4651-AAB2-5A5B55FD1B84}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{BEC676D7-2196-4582-B754-27C40BA62468}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="CFB">Lists!$A$2:$A$3</definedName>
     <definedName name="DS">Lists!$C$2</definedName>
     <definedName name="DT">Lists!$F$3:$F$7</definedName>
-    <definedName name="FS">Lists!$B$2:$B$5</definedName>
+    <definedName name="FS">Lists!$B$2:$B$6</definedName>
     <definedName name="MP">Lists!$H$2:$H$3</definedName>
     <definedName name="OT">Lists!$G$2:$G$3</definedName>
     <definedName name="Prov">Lists!$E$2:$E$6</definedName>
@@ -83,6 +83,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{9DEB08A6-FB34-4D17-9D85-5A3632757583}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Choose the provider (a.k.a. source type).</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -213,6 +237,92 @@
     <author>Michael Kovalsky</author>
   </authors>
   <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{AEB0147F-F0F6-4153-BB88-FBB7D59C1474}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Add the name of a measure or column. Use a friendly name (with spaces and easy to read)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{AD48ADB9-6620-4F44-99A4-E6C6F02E5CED}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Add the name of the table to which the object belongs.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{28B53054-B0A5-45A3-82C3-06DD0A90DD0A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Specify whether the object is a measure or a column.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{B34C1912-F015-47DF-8D62-1AD56B42214A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Specify the column name from the source - must match the column in the data warehouse. For columns only.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0C25DD3A-B438-4F71-AF8B-9DF5E1F83B10}">
       <text>
         <r>
@@ -227,6 +337,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{1EF11733-8A38-4D45-81F8-8E98E5B33FEA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter the DAX formula here - for measures only.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="G1" authorId="0" shapeId="0" xr:uid="{C8875439-6C68-4340-A6C3-8A77F5CC2B5C}">
       <text>
         <r>
@@ -266,6 +400,30 @@
             <charset val="1"/>
           </rPr>
           <t>Mark 'Yes' if the column is the primary key (must be unique in that table).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{AA9B1828-9EA6-4EC3-8AF4-AF2208079E19}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter 'None' if the column is not summarizable.</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -796,8 +954,8 @@
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>409576</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142876</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -812,8 +970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7500938" y="423863"/>
-          <a:ext cx="3433763" cy="2252663"/>
+          <a:off x="7500938" y="361950"/>
+          <a:ext cx="3433763" cy="2014538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -875,6 +1033,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1177,7 +1339,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1284,7 +1446,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD12"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1336,7 +1498,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1347,7 +1509,7 @@
     <col min="4" max="4" width="17.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.265625" customWidth="1"/>
-    <col min="7" max="7" width="8.73046875" customWidth="1"/>
+    <col min="7" max="7" width="11.73046875" customWidth="1"/>
     <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.46484375" bestFit="1" customWidth="1"/>
@@ -1518,7 +1680,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1680,23 +1842,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="beaba498-6342-4421-a18c-7bfd16d38d53" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BCC0D0C0DFF8C6449DE7873A14FBCB83" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa404479abba3feb074acc2e806565cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9e548fd3-f7b4-490c-9d07-36be117e6ce5" xmlns:ns4="beaba498-6342-4421-a18c-7bfd16d38d53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25dd324ff6cedc5a2df3109d58df23e8" ns3:_="" ns4:_="">
     <xsd:import namespace="9e548fd3-f7b4-490c-9d07-36be117e6ce5"/>
@@ -1931,25 +2076,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="beaba498-6342-4421-a18c-7bfd16d38d53" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2275932-CD7C-4B19-A948-199D3E0E5FFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9805D712-353E-429A-8628-FA34CABB75D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="beaba498-6342-4421-a18c-7bfd16d38d53"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F812E1F2-546D-4113-A992-5C4A89A4B9AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1966,4 +2110,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9805D712-353E-429A-8628-FA34CABB75D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="beaba498-6342-4421-a18c-7bfd16d38d53"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2275932-CD7C-4B19-A948-199D3E0E5FFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/ModelAutoBuild/ModelAutoBuild.xlsx
+++ b/ModelAutoBuild/ModelAutoBuild.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/mikova_microsoft_com/Documents/Power BI CAT/ModelAutoBuild/GitHub/v1.1.1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/mikova_microsoft_com/Documents/Power BI CAT/ModelAutoBuild/GitHub/v1.3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="477" documentId="8_{CFACD04C-7A0A-42D0-93DE-D5298EAD720C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{850CA345-F752-4651-AAB2-5A5B55FD1B84}"/>
+  <xr:revisionPtr revIDLastSave="505" documentId="8_{CFACD04C-7A0A-42D0-93DE-D5298EAD720C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DB7F34CC-1BE8-46EA-A2EC-4D388A09D32A}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{BEC676D7-2196-4582-B754-27C40BA62468}"/>
   </bookViews>
@@ -20,7 +20,8 @@
     <sheet name="Model" sheetId="5" r:id="rId5"/>
     <sheet name="Roles" sheetId="8" r:id="rId6"/>
     <sheet name="RLS" sheetId="7" r:id="rId7"/>
-    <sheet name="Lists" sheetId="6" state="hidden" r:id="rId8"/>
+    <sheet name="Hierarchies" sheetId="9" r:id="rId8"/>
+    <sheet name="Lists" sheetId="6" state="hidden" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="CFB">Lists!$A$2:$A$3</definedName>
@@ -693,8 +694,60 @@
 </comments>
 </file>
 
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Michael Kovalsky</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{1244F327-6D9C-4453-A3FD-EBB8EA9C4B61}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter the name of the hierarchy. The best practice is to name hierarchies with the word hierarchy at the end (i.e. Geography Hierarchy).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{A01201A5-59A9-49BF-A371-2DFADD6EC2C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter the table that the hierarchy is in.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{A934B9EB-FD4F-4909-84EE-06ADE27E074E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Enter the column from the table specified that are to be in the hierarchy.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>ObjectType</t>
   </si>
@@ -874,6 +927,12 @@
   </si>
   <si>
     <t>FilterExpression</t>
+  </si>
+  <si>
+    <t>HierarchyName</t>
+  </si>
+  <si>
+    <t>ColumnName</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1094,129 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>271463</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21677979-25FC-4972-B304-22D21339D556}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7043738" y="419099"/>
+          <a:ext cx="3433763" cy="2424113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Notes:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Make sure to enter each</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> hierarchy's columns in the proper order. The order is from least granular to most granular. In other words, if you wanted a calendar hierarchy you would enter columns akin to the format below. See the ModelAutoBuild_Example.xlsx file for additional examples.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Calendar Year</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Calendar Quarter</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Calendar Month</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Calendar Date</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1339,7 +1519,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1676,6 +1856,39 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686E7B3B-9749-44AD-B647-51B5E0973B01}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02BE63A7-A7D5-49AC-9895-8F1C3551ADEE}">
   <dimension ref="A1:H10"/>
   <sheetViews>
@@ -1842,6 +2055,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <MediaServiceKeyPoints xmlns="beaba498-6342-4421-a18c-7bfd16d38d53" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BCC0D0C0DFF8C6449DE7873A14FBCB83" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fa404479abba3feb074acc2e806565cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9e548fd3-f7b4-490c-9d07-36be117e6ce5" xmlns:ns4="beaba498-6342-4421-a18c-7bfd16d38d53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="25dd324ff6cedc5a2df3109d58df23e8" ns3:_="" ns4:_="">
     <xsd:import namespace="9e548fd3-f7b4-490c-9d07-36be117e6ce5"/>
@@ -2076,24 +2306,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <MediaServiceKeyPoints xmlns="beaba498-6342-4421-a18c-7bfd16d38d53" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9805D712-353E-429A-8628-FA34CABB75D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="beaba498-6342-4421-a18c-7bfd16d38d53"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2275932-CD7C-4B19-A948-199D3E0E5FFC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F812E1F2-546D-4113-A992-5C4A89A4B9AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2110,22 +2341,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9805D712-353E-429A-8628-FA34CABB75D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="beaba498-6342-4421-a18c-7bfd16d38d53"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2275932-CD7C-4B19-A948-199D3E0E5FFC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>